--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD8022C-D626-46ED-AC0E-B9617180F3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{EC93AAAE-F4C5-4E11-9DA8-207FAB7EFC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD12569-E843-4AF3-95D1-96563F401A0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios Crown" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="261">
   <si>
     <t>Nombre</t>
   </si>
@@ -789,6 +789,15 @@
   </si>
   <si>
     <t>LOCAL\practicas</t>
+  </si>
+  <si>
+    <t>Es jefe</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -879,17 +888,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}" name="Tabla1" displayName="Tabla1" ref="A1:E82" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E82" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}" name="Tabla1" displayName="Tabla1" ref="A1:F82" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F82" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E81">
     <sortCondition ref="D1:D81"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9490AABE-096E-46D2-A730-536117DCF14A}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{3A922DC4-4FD1-421E-968B-CF2B14B189A6}" name="Correo"/>
     <tableColumn id="3" xr3:uid="{173AEE7D-5BFF-4952-A9C5-CC3357BE9889}" name="Área"/>
     <tableColumn id="4" xr3:uid="{083B2699-0256-4758-84F1-F8DA6E9742BF}" name="Departamento"/>
     <tableColumn id="5" xr3:uid="{F9C13AC2-A038-404F-8F4D-24756583403C}" name="Usuario de Login"/>
+    <tableColumn id="6" xr3:uid="{867D30C2-3CF5-4746-A564-D1E8A254F090}" name="Es jefe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1218,22 +1228,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1259,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1266,8 +1279,11 @@
       <c r="E2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1283,8 +1299,11 @@
       <c r="E3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1300,8 +1319,11 @@
       <c r="E4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1317,8 +1339,11 @@
       <c r="E5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -1334,8 +1359,11 @@
       <c r="E6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -1351,8 +1379,11 @@
       <c r="E7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1368,8 +1399,11 @@
       <c r="E8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1385,8 +1419,11 @@
       <c r="E9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1402,8 +1439,11 @@
       <c r="E10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -1419,8 +1459,11 @@
       <c r="E11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1436,8 +1479,11 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1453,8 +1499,11 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1470,8 +1519,11 @@
       <c r="E14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -1487,8 +1539,11 @@
       <c r="E15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1504,8 +1559,11 @@
       <c r="E16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1521,8 +1579,11 @@
       <c r="E17" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1538,8 +1599,11 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1555,8 +1619,11 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1572,8 +1639,11 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1589,8 +1659,11 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1606,8 +1679,11 @@
       <c r="E22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1623,8 +1699,11 @@
       <c r="E23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1640,8 +1719,11 @@
       <c r="E24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1657,8 +1739,11 @@
       <c r="E25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1674,8 +1759,11 @@
       <c r="E26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1691,8 +1779,11 @@
       <c r="E27" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1708,8 +1799,11 @@
       <c r="E28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -1725,8 +1819,11 @@
       <c r="E29" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -1742,8 +1839,11 @@
       <c r="E30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -1759,8 +1859,11 @@
       <c r="E31" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -1776,8 +1879,11 @@
       <c r="E32" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -1793,8 +1899,11 @@
       <c r="E33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -1810,8 +1919,11 @@
       <c r="E34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -1827,8 +1939,11 @@
       <c r="E35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -1844,8 +1959,11 @@
       <c r="E36" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -1861,8 +1979,11 @@
       <c r="E37" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -1878,8 +1999,11 @@
       <c r="E38" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1895,8 +2019,11 @@
       <c r="E39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1912,8 +2039,11 @@
       <c r="E40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1929,8 +2059,11 @@
       <c r="E41" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1946,8 +2079,11 @@
       <c r="E42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1963,8 +2099,11 @@
       <c r="E43" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1980,8 +2119,11 @@
       <c r="E44" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1997,8 +2139,11 @@
       <c r="E45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -2014,8 +2159,11 @@
       <c r="E46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2031,8 +2179,11 @@
       <c r="E47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2048,8 +2199,11 @@
       <c r="E48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2065,8 +2219,11 @@
       <c r="E49" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2082,8 +2239,11 @@
       <c r="E50" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2099,8 +2259,11 @@
       <c r="E51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2116,8 +2279,11 @@
       <c r="E52" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2133,8 +2299,11 @@
       <c r="E53" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2150,8 +2319,11 @@
       <c r="E54" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -2167,8 +2339,11 @@
       <c r="E55" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -2184,8 +2359,11 @@
       <c r="E56" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -2201,8 +2379,11 @@
       <c r="E57" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -2218,8 +2399,11 @@
       <c r="E58" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>168</v>
       </c>
@@ -2235,8 +2419,11 @@
       <c r="E59" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -2252,8 +2439,11 @@
       <c r="E60" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -2269,8 +2459,11 @@
       <c r="E61" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -2286,8 +2479,11 @@
       <c r="E62" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -2303,8 +2499,11 @@
       <c r="E63" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -2320,8 +2519,11 @@
       <c r="E64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -2337,8 +2539,11 @@
       <c r="E65" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -2354,8 +2559,11 @@
       <c r="E66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -2371,8 +2579,11 @@
       <c r="E67" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2388,8 +2599,11 @@
       <c r="E68" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -2405,8 +2619,11 @@
       <c r="E69" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -2422,8 +2639,11 @@
       <c r="E70" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -2439,8 +2659,11 @@
       <c r="E71" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -2456,8 +2679,11 @@
       <c r="E72" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -2473,8 +2699,11 @@
       <c r="E73" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2490,8 +2719,11 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2507,8 +2739,11 @@
       <c r="E75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -2524,8 +2759,11 @@
       <c r="E76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -2541,8 +2779,11 @@
       <c r="E77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -2558,8 +2799,11 @@
       <c r="E78" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -2575,8 +2819,11 @@
       <c r="E79" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -2592,8 +2839,11 @@
       <c r="E80" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -2609,8 +2859,11 @@
       <c r="E81" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>255</v>
       </c>
@@ -2625,6 +2878,9 @@
       </c>
       <c r="E82" t="s">
         <v>257</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{EC93AAAE-F4C5-4E11-9DA8-207FAB7EFC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD12569-E843-4AF3-95D1-96563F401A0A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C783B7E-FD0E-488D-A176-2B3DB01DC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios Crown" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="290">
   <si>
     <t>Nombre</t>
   </si>
@@ -798,6 +798,93 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>Golden Shores</t>
+  </si>
+  <si>
+    <t>Miguel Arturo Sanchez</t>
+  </si>
+  <si>
+    <t>Bertha Ibarra</t>
+  </si>
+  <si>
+    <t>Paula Cisneros</t>
+  </si>
+  <si>
+    <t>Asistente Golden Shores</t>
+  </si>
+  <si>
+    <t>Asistente Operativo</t>
+  </si>
+  <si>
+    <t>Sala de ventas</t>
+  </si>
+  <si>
+    <t>Nancy Morales</t>
+  </si>
+  <si>
+    <t>Yamilet Peña Lara</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun07</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun01</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun02</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun3</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun09</t>
+  </si>
+  <si>
+    <t>LOCAL\sala de ventas</t>
+  </si>
+  <si>
+    <t>LOCAL\atencion a socios</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun11</t>
+  </si>
+  <si>
+    <t>Concierge Golden Shores</t>
+  </si>
+  <si>
+    <t>Canales Internos</t>
+  </si>
+  <si>
+    <t>admoncun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>socioscancun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>ARRIVA\gscun08</t>
+  </si>
+  <si>
+    <t>asist_gshorescun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>memberscancun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>marketingcancun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>msanchez@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>vlocancun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>salesmanagercun@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>asistooperativo@goldenshores.com.mx</t>
   </si>
 </sst>
 </file>
@@ -816,6 +903,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -834,7 +922,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -842,15 +930,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -888,8 +994,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}" name="Tabla1" displayName="Tabla1" ref="A1:F82" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F82" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}" name="Tabla1" displayName="Tabla1" ref="A1:F92" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F92" xr:uid="{A9299B97-B99B-4DC8-8282-36BE7801C421}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E81">
     <sortCondition ref="D1:D81"/>
   </sortState>
@@ -1228,22 +1334,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1369,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1283,7 +1389,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1303,7 +1409,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -1323,7 +1429,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1343,7 +1449,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -1363,7 +1469,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -1383,7 +1489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1509,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -1423,7 +1529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -1443,7 +1549,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -1463,7 +1569,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1483,7 +1589,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1503,7 +1609,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1523,7 +1629,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -1543,7 +1649,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1563,7 +1669,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1583,7 +1689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1709,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1643,7 +1749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1663,7 +1769,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1703,7 +1809,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1723,7 +1829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1743,7 +1849,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1763,7 +1869,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -1783,7 +1889,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1803,7 +1909,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -1823,7 +1929,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -1843,7 +1949,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>252</v>
       </c>
@@ -1863,7 +1969,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -1883,7 +1989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -1903,7 +2009,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -1923,7 +2029,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -1943,7 +2049,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -1963,7 +2069,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -1983,7 +2089,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>248</v>
       </c>
@@ -2003,7 +2109,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2129,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2149,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2063,7 +2169,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2083,7 +2189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -2103,7 +2209,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2229,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2143,7 +2249,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -2163,7 +2269,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2183,7 +2289,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2203,7 +2309,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2223,7 +2329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2243,7 +2349,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2263,7 +2369,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2283,7 +2389,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2303,7 +2409,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -2323,7 +2429,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -2343,7 +2449,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -2363,7 +2469,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -2383,7 +2489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -2403,7 +2509,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>168</v>
       </c>
@@ -2423,7 +2529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -2443,7 +2549,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -2463,7 +2569,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -2483,7 +2589,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -2503,7 +2609,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -2523,7 +2629,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -2543,7 +2649,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -2563,7 +2669,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -2583,7 +2689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2603,7 +2709,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -2623,7 +2729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>245</v>
       </c>
@@ -2643,7 +2749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -2663,7 +2769,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -2683,7 +2789,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -2703,7 +2809,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2723,7 +2829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2849,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -2763,7 +2869,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -2783,7 +2889,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -2803,7 +2909,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>208</v>
       </c>
@@ -2823,7 +2929,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -2843,7 +2949,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -2863,7 +2969,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>255</v>
       </c>
@@ -2880,6 +2986,203 @@
         <v>257</v>
       </c>
       <c r="F82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>261</v>
+      </c>
+      <c r="E83" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
+        <v>271</v>
+      </c>
+      <c r="F84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" t="s">
+        <v>272</v>
+      </c>
+      <c r="F85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" t="s">
+        <v>274</v>
+      </c>
+      <c r="F87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" t="s">
+        <v>277</v>
+      </c>
+      <c r="F90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2889,11 +3192,19 @@
     <hyperlink ref="B52" r:id="rId2" xr:uid="{E6943F17-6C80-4605-A40B-053F9F734E11}"/>
     <hyperlink ref="B54" r:id="rId3" xr:uid="{7DF46576-4CF8-4C0A-8982-315AE05E9433}"/>
     <hyperlink ref="B82" r:id="rId4" xr:uid="{526DC027-CD0E-4347-8477-5DD3919072C9}"/>
+    <hyperlink ref="B84" r:id="rId5" xr:uid="{05BE8DF4-EE01-44FC-9F5F-A59CBF58993C}"/>
+    <hyperlink ref="B90" r:id="rId6" xr:uid="{2BD72C8A-46C6-4AA2-97FF-3C59E480CFF9}"/>
+    <hyperlink ref="B89" r:id="rId7" xr:uid="{6DEF3BD0-5D4D-487E-9A78-0E628D8E12C8}"/>
+    <hyperlink ref="B91" r:id="rId8" xr:uid="{2ECEB650-EA1C-4977-A07D-E1F44E63FDA5}"/>
+    <hyperlink ref="B83" r:id="rId9" xr:uid="{4BB4CE27-95D2-4BD8-A8AE-22D0AB4F1D12}"/>
+    <hyperlink ref="B92" r:id="rId10" xr:uid="{CCB7569F-7C4A-45AC-A738-5A7777A8BD12}"/>
+    <hyperlink ref="B86" r:id="rId11" xr:uid="{6F9ECF71-34EB-4E87-B39B-A5F3CB72547F}"/>
+    <hyperlink ref="B85" r:id="rId12" xr:uid="{AE447FCE-5475-4563-A677-E467C73C7B97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C783B7E-FD0E-488D-A176-2B3DB01DC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0AF02-CF36-4C57-BCC9-EF634AE22BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,18 +92,12 @@
     <t>División Cuartos</t>
   </si>
   <si>
-    <t>CROWNCUN\amadellaves</t>
-  </si>
-  <si>
     <t>Asistente Ama de Llaves</t>
   </si>
   <si>
     <t>asist_amadellaves@crownparadise.com</t>
   </si>
   <si>
-    <t>CROWNCUN\asistllaves</t>
-  </si>
-  <si>
     <t>Asistente Capital Humano</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>chefejecutivo@crownparadise.com</t>
   </si>
   <si>
-    <t>CROWNCUN\chefejecutivo</t>
-  </si>
-  <si>
     <t>Ismael Tuz</t>
   </si>
   <si>
@@ -885,6 +876,15 @@
   </si>
   <si>
     <t>asistooperativo@goldenshores.com.mx</t>
+  </si>
+  <si>
+    <t>ARRIVA\chefejecutivo</t>
+  </si>
+  <si>
+    <t>ARRIVA\asisllavescun</t>
+  </si>
+  <si>
+    <t>ARRIVA\jefellavescun</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,327 +1366,327 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
       <c r="F14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,35 +1726,35 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1763,18 +1763,18 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1783,18 +1783,18 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1803,58 +1803,58 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1863,18 +1863,18 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -1883,98 +1883,98 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
         <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -1983,18 +1983,18 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -2003,38 +2003,38 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -2043,38 +2043,38 @@
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2083,30 +2083,30 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,18 +2123,18 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
         <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -2143,258 +2143,258 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
         <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
         <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
@@ -2403,198 +2403,198 @@
         <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -2603,210 +2603,210 @@
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" t="s">
-        <v>192</v>
-      </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
         <v>204</v>
       </c>
-      <c r="B65" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-      <c r="E65" t="s">
-        <v>207</v>
-      </c>
       <c r="F65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
         <v>44</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
         <v>45</v>
       </c>
-      <c r="C66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
         <v>114</v>
       </c>
-      <c r="B67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
         <v>197</v>
       </c>
-      <c r="B71" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" t="s">
-        <v>200</v>
-      </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,35 +2846,35 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
         <v>85</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>87</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -2883,18 +2883,18 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -2903,18 +2903,18 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2923,18 +2923,18 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2943,18 +2943,18 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2963,227 +2963,227 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0AF02-CF36-4C57-BCC9-EF634AE22BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C55AA0-20F6-4BC6-BE3F-474AC0B19EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,8 +1336,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C55AA0-20F6-4BC6-BE3F-474AC0B19EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0FDAA1-FAB8-4C4B-AE87-B9705ABE19E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,9 +704,6 @@
     <t>subchef-cancun@crownparadise.com</t>
   </si>
   <si>
-    <t>CROWNCUN\subchef</t>
-  </si>
-  <si>
     <t>Supervisor Recepción</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>ARRIVA\jefellavescun</t>
+  </si>
+  <si>
+    <t>ARRIVA\subchefcun</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,10 +1443,10 @@
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,15 +1546,15 @@
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
         <v>236</v>
-      </c>
-      <c r="B11" t="s">
-        <v>237</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1563,10 +1563,10 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,15 +1946,15 @@
         <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C31" t="s">
         <v>127</v>
@@ -1966,7 +1966,7 @@
         <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2086,27 +2086,27 @@
         <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" t="s">
         <v>245</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>247</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,10 +2123,10 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,10 +2143,10 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2386,7 +2386,7 @@
         <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,15 +2566,15 @@
         <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
         <v>230</v>
-      </c>
-      <c r="B62" t="s">
-        <v>231</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -2583,18 +2583,18 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
         <v>239</v>
-      </c>
-      <c r="B63" t="s">
-        <v>240</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -2603,10 +2603,10 @@
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>204</v>
       </c>
       <c r="F65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,15 +2706,15 @@
         <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
         <v>233</v>
-      </c>
-      <c r="B69" t="s">
-        <v>234</v>
       </c>
       <c r="C69" t="s">
         <v>44</v>
@@ -2723,18 +2723,18 @@
         <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" t="s">
         <v>242</v>
-      </c>
-      <c r="B70" t="s">
-        <v>243</v>
       </c>
       <c r="C70" t="s">
         <v>44</v>
@@ -2743,10 +2743,10 @@
         <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>197</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>225</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>225</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,224 +2966,224 @@
         <v>213</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/Usuarios de crownparadise.xlsx
+++ b/src/assets/Usuarios de crownparadise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0FDAA1-FAB8-4C4B-AE87-B9705ABE19E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66420935-A5D1-4241-93E0-48C7B6953AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,9 +596,6 @@
     <t>Areas Publicas</t>
   </si>
   <si>
-    <t>CROWNCUN\apublicas</t>
-  </si>
-  <si>
     <t>Natalia Salto</t>
   </si>
   <si>
@@ -885,6 +882,9 @@
   </si>
   <si>
     <t>ARRIVA\subchefcun</t>
+  </si>
+  <si>
+    <t>ARRIVA\apublicascun</t>
   </si>
 </sst>
 </file>
@@ -950,12 +950,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1336,8 +1339,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1389,7 @@
         <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,7 +1409,7 @@
         <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,7 +1429,7 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,18 +1446,18 @@
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
         <v>217</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -1463,18 +1466,18 @@
         <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>228</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -1483,10 +1486,10 @@
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,15 +1529,15 @@
         <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
         <v>198</v>
-      </c>
-      <c r="B10" t="s">
-        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1543,18 +1546,18 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
         <v>235</v>
-      </c>
-      <c r="B11" t="s">
-        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -1563,10 +1566,10 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,7 +1609,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,7 +1649,7 @@
         <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1666,7 +1669,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1689,7 @@
         <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,7 +1749,7 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1769,7 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1789,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,7 +1809,7 @@
         <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,7 +1829,7 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,7 +1849,7 @@
         <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1869,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,7 +1889,7 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +1909,7 @@
         <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,15 +1949,15 @@
         <v>149</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C31" t="s">
         <v>127</v>
@@ -1966,7 +1969,7 @@
         <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,7 +1989,7 @@
         <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,7 +2009,7 @@
         <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,7 +2029,7 @@
         <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,15 +2049,15 @@
         <v>185</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s">
         <v>214</v>
-      </c>
-      <c r="B36" t="s">
-        <v>215</v>
       </c>
       <c r="C36" t="s">
         <v>148</v>
@@ -2063,18 +2066,18 @@
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
         <v>220</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2083,30 +2086,30 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
         <v>244</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>245</v>
-      </c>
-      <c r="C38" t="s">
-        <v>246</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,10 +2126,10 @@
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,10 +2146,10 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,7 +2169,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,7 +2189,7 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,7 +2209,7 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2246,7 +2249,7 @@
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,7 +2269,7 @@
         <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
         <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,7 +2309,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,7 +2329,7 @@
         <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,7 +2349,7 @@
         <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,7 +2369,7 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2374,7 +2377,7 @@
         <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -2386,7 +2389,7 @@
         <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,7 +2409,7 @@
         <v>121</v>
       </c>
       <c r="F53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,7 +2429,7 @@
         <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,7 +2469,7 @@
         <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,7 +2489,7 @@
         <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
         <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,7 +2529,7 @@
         <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,7 +2549,7 @@
         <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,19 +2565,19 @@
       <c r="D61" t="s">
         <v>24</v>
       </c>
-      <c r="E61" t="s">
-        <v>193</v>
+      <c r="E61" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
         <v>229</v>
-      </c>
-      <c r="B62" t="s">
-        <v>230</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -2583,18 +2586,18 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" t="s">
         <v>238</v>
-      </c>
-      <c r="B63" t="s">
-        <v>239</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -2603,10 +2606,10 @@
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,27 +2629,27 @@
         <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
         <v>201</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>202</v>
-      </c>
-      <c r="C65" t="s">
-        <v>203</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2686,7 +2689,7 @@
         <v>114</v>
       </c>
       <c r="F67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,15 +2709,15 @@
         <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" t="s">
         <v>232</v>
-      </c>
-      <c r="B69" t="s">
-        <v>233</v>
       </c>
       <c r="C69" t="s">
         <v>44</v>
@@ -2723,18 +2726,18 @@
         <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" t="s">
         <v>241</v>
-      </c>
-      <c r="B70" t="s">
-        <v>242</v>
       </c>
       <c r="C70" t="s">
         <v>44</v>
@@ -2743,70 +2746,70 @@
         <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" t="s">
         <v>194</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>195</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" t="s">
         <v>196</v>
       </c>
-      <c r="D71" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" t="s">
-        <v>197</v>
-      </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" t="s">
         <v>223</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" t="s">
         <v>224</v>
       </c>
-      <c r="C72" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" t="s">
-        <v>225</v>
-      </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73" t="s">
         <v>224</v>
       </c>
-      <c r="C73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" t="s">
-        <v>225</v>
-      </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,7 +2869,7 @@
         <v>86</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,7 +2889,7 @@
         <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2906,15 +2909,15 @@
         <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" t="s">
         <v>205</v>
-      </c>
-      <c r="B79" t="s">
-        <v>206</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -2923,18 +2926,18 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
         <v>208</v>
-      </c>
-      <c r="B80" t="s">
-        <v>209</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2943,18 +2946,18 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
         <v>211</v>
-      </c>
-      <c r="B81" t="s">
-        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -2963,227 +2966,227 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
